--- a/bornforthis.cn/blog/2025/10month/excel-vlookup/实操 1/实操 1.xlsx
+++ b/bornforthis.cn/blog/2025/10month/excel-vlookup/实操 1/实操 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangjiabao/GitHub/WebSite/BornforthisData/bornforthis.cn/blog/2025/10month/excel-vlookup/实操 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D35FD8C-0FB6-2E4F-8411-54A328E591C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F360DE-6763-3243-B7AD-86B8E936AAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -62,12 +62,42 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
-          <t>在此输入：=VLOOKUP(B6, 员工数据!$A$2:$E$100, 5, FALSE)</t>
+          <t>在此输入：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">=VLOOKUP(B6, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>员工数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>!$A$2:$E$100, 5, FALSE)</t>
         </r>
       </text>
     </comment>
@@ -107,9 +137,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
-    <t>VLOOKUP 实战教程（配套练习文件）</t>
-  </si>
-  <si>
     <t>包含的工作表：</t>
   </si>
   <si>
@@ -128,24 +155,12 @@
     <t>【任务1——精确匹配】</t>
   </si>
   <si>
-    <t xml:space="preserve">  在“查找练习”B3 输入员工编号；在 B4、B5、B6 分别用 VLOOKUP 返回姓名、部门和工资。</t>
-  </si>
-  <si>
     <t>【任务2——动态列选择】</t>
   </si>
   <si>
-    <t xml:space="preserve">  在 B9 输入员工编号；在 B10 输入字段名称（如：姓名、部门、职位、工资）。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  在 B11 用 VLOOKUP + MATCH 动态返回该字段：</t>
-  </si>
-  <si>
     <t>【任务3——近似匹配】</t>
   </si>
   <si>
-    <t xml:space="preserve">  在 B14 输入分数（0-100）；在 B15 用近似匹配返回等级：</t>
-  </si>
-  <si>
     <t xml:space="preserve">  注意：近似匹配要求查找列按升序排序。本文件已为你排好序。</t>
   </si>
   <si>
@@ -305,9 +320,6 @@
     <t>任务1：精确匹配（根据员工编号查姓名/部门/工资）</t>
   </si>
   <si>
-    <t>步骤：在 B3 输入员工编号；在 B4、B5、B6 分别编写 VLOOKUP 公式。</t>
-  </si>
-  <si>
     <t>输入员工编号</t>
   </si>
   <si>
@@ -323,9 +335,6 @@
     <t>任务2：动态列选择（VLOOKUP + MATCH）</t>
   </si>
   <si>
-    <t>步骤：在 B12 输入员工编号；在 B13 输入字段名称（姓名/部门/职位/工资）；在 B14 写出公式。</t>
-  </si>
-  <si>
     <t>字段名称</t>
   </si>
   <si>
@@ -335,20 +344,49 @@
     <t>任务3：近似匹配（分数 → 等级）</t>
   </si>
   <si>
-    <t>步骤：在 B19 输入分数；在 B20 用 VLOOKUP 的近似匹配得到等级。</t>
-  </si>
-  <si>
     <t>输入分数</t>
   </si>
   <si>
     <t>等级（公式）</t>
+  </si>
+  <si>
+    <t>步骤：在 B6 输入员工编号；在 B7、B8、B9 分别编写 VLOOKUP 公式。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤：在 B14 输入员工编号；在 B15 输入字段名称（姓名/部门/职位/工资）；在 B16 写出公式。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLOOKUP 实战教程（配套练习文件）-bornforthis.cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤：在 B20 输入分数；在 B21 用 VLOOKUP 的近似匹配得到等级。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  在“查找练习”B6 输入员工编号；在 B7、B8、B9 分别用 VLOOKUP 返回姓名、部门和工资。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  在 B14 输入员工编号；在 B15 输入字段名称（如：姓名、部门、职位、工资）。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  在 B16 用 VLOOKUP + MATCH 动态返回该字段：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  在 B20 输入分数（0-100）；在 B21 用近似匹配返回等级：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +414,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -744,9 +789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -756,87 +801,87 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -863,19 +908,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -883,13 +928,13 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>12000</v>
@@ -900,13 +945,13 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>9000</v>
@@ -917,13 +962,13 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>18000</v>
@@ -934,13 +979,13 @@
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>17000</v>
@@ -951,13 +996,13 @@
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>11000</v>
@@ -968,13 +1013,13 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>10000</v>
@@ -985,13 +1030,13 @@
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>13000</v>
@@ -1002,13 +1047,13 @@
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>10500</v>
@@ -1019,13 +1064,13 @@
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>8500</v>
@@ -1036,13 +1081,13 @@
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>16000</v>
@@ -1053,13 +1098,13 @@
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>20000</v>
@@ -1070,13 +1115,13 @@
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>15000</v>
@@ -1087,13 +1132,13 @@
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>14500</v>
@@ -1104,13 +1149,13 @@
         <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <v>8000</v>
@@ -1121,13 +1166,13 @@
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>12500</v>
@@ -1156,10 +1201,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1167,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1175,7 +1220,7 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1183,7 +1228,7 @@
         <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1191,7 +1236,7 @@
         <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1204,9 +1249,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="164" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1218,46 +1263,46 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1267,41 +1312,41 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B16" s="6"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B21" s="6"/>
     </row>
